--- a/01.日常记录/03.体重曲线.xlsx
+++ b/01.日常记录/03.体重曲线.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{E2F54E05-B886-4E32-B094-34A98879DEFD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{0B874414-4B99-49BA-A127-213650B5EDA7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="曲线图" sheetId="1" r:id="rId1"/>
@@ -36,8 +36,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="177" formatCode="0.0_ "/>
-    <numFmt numFmtId="180" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="176" formatCode="0.0_ "/>
+    <numFmt numFmtId="177" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -123,10 +123,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -249,7 +249,10 @@
           <c:spPr>
             <a:ln w="22225" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent6"/>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -272,78 +275,7 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="25000"/>
-                    <a:lumOff val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="dk1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <a:prstGeom prst="roundRect">
-                    <a:avLst/>
-                  </a:prstGeom>
-                  <a:noFill/>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                </c15:spPr>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="dk1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
+            <c:delete val="1"/>
           </c:dLbls>
           <c:cat>
             <c:numRef>
@@ -545,6 +477,12 @@
                 <c:ptCount val="61"/>
                 <c:pt idx="0">
                   <c:v>107.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1717,7 +1655,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q42" sqref="Q42"/>
     </sheetView>
   </sheetViews>
@@ -1788,8 +1726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C275577E-A609-46D6-BF7C-7CE4687F1E92}">
   <dimension ref="A1:B62"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1818,13 +1756,17 @@
       <c r="A3" s="4">
         <v>43203</v>
       </c>
-      <c r="B3" s="3"/>
+      <c r="B3" s="3">
+        <v>107</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>43204</v>
       </c>
-      <c r="B4" s="3"/>
+      <c r="B4" s="3">
+        <v>107</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="4">

--- a/01.日常记录/03.体重曲线.xlsx
+++ b/01.日常记录/03.体重曲线.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{0B874414-4B99-49BA-A127-213650B5EDA7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{7625EEF6-23D2-4148-9213-843CDF7EA0A7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -483,6 +483,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>106.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1727,7 +1730,7 @@
   <dimension ref="A1:B62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1772,7 +1775,9 @@
       <c r="A5" s="4">
         <v>43205</v>
       </c>
-      <c r="B5" s="3"/>
+      <c r="B5" s="3">
+        <v>106.8</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="4">

--- a/01.日常记录/03.体重曲线.xlsx
+++ b/01.日常记录/03.体重曲线.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{7625EEF6-23D2-4148-9213-843CDF7EA0A7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{23934378-5335-41DD-85CF-95508662AE51}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -486,6 +486,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>106.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>106.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1730,7 +1733,7 @@
   <dimension ref="A1:B62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1783,7 +1786,9 @@
       <c r="A6" s="4">
         <v>43206</v>
       </c>
-      <c r="B6" s="3"/>
+      <c r="B6" s="3">
+        <v>106.5</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="4">

--- a/01.日常记录/03.体重曲线.xlsx
+++ b/01.日常记录/03.体重曲线.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{23934378-5335-41DD-85CF-95508662AE51}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{4302FFFB-68BB-4F9F-86D8-3FAE92680B76}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -489,6 +489,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>106.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>106</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1733,7 +1736,7 @@
   <dimension ref="A1:B62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1794,7 +1797,9 @@
       <c r="A7" s="4">
         <v>43207</v>
       </c>
-      <c r="B7" s="3"/>
+      <c r="B7" s="3">
+        <v>106</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="4">

--- a/01.日常记录/03.体重曲线.xlsx
+++ b/01.日常记录/03.体重曲线.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{4302FFFB-68BB-4F9F-86D8-3FAE92680B76}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{F97F2B85-5726-4F50-BAA8-29903B9F0E70}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -492,6 +492,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>105.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1736,7 +1739,7 @@
   <dimension ref="A1:B62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1805,7 +1808,9 @@
       <c r="A8" s="4">
         <v>43208</v>
       </c>
-      <c r="B8" s="3"/>
+      <c r="B8" s="3">
+        <v>105.5</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="4">

--- a/01.日常记录/03.体重曲线.xlsx
+++ b/01.日常记录/03.体重曲线.xlsx
@@ -1,18 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{F97F2B85-5726-4F50-BAA8-29903B9F0E70}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="24030"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="曲线图" sheetId="1" r:id="rId1"/>
     <sheet name="数据" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.0_ "/>
     <numFmt numFmtId="177" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
@@ -95,16 +97,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -131,8 +133,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="好" xfId="1" builtinId="26"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -148,7 +150,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -191,8 +193,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.47168036529680363"/>
-          <c:y val="0"/>
+          <c:x val="0.471680365296804"/>
+          <c:y val="0.0"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -203,26 +205,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mj-lt"/>
-              <a:ea typeface="+mj-ea"/>
-              <a:cs typeface="+mj-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -231,10 +213,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.1925214827598603E-2"/>
-          <c:y val="4.9742743075229731E-2"/>
-          <c:w val="0.93792600829476458"/>
-          <c:h val="0.85860443002937292"/>
+          <c:x val="0.0419252148275986"/>
+          <c:y val="0.0497427430752297"/>
+          <c:w val="0.937926008294765"/>
+          <c:h val="0.858604430029373"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -284,187 +266,187 @@
                 <c:formatCode>m"月"d"日";@</c:formatCode>
                 <c:ptCount val="61"/>
                 <c:pt idx="0">
-                  <c:v>43202</c:v>
+                  <c:v>43202.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43203</c:v>
+                  <c:v>43203.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43204</c:v>
+                  <c:v>43204.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43205</c:v>
+                  <c:v>43205.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43206</c:v>
+                  <c:v>43206.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43207</c:v>
+                  <c:v>43207.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43208</c:v>
+                  <c:v>43208.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43209</c:v>
+                  <c:v>43209.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43210</c:v>
+                  <c:v>43210.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43211</c:v>
+                  <c:v>43211.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43212</c:v>
+                  <c:v>43212.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43213</c:v>
+                  <c:v>43213.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43214</c:v>
+                  <c:v>43214.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43215</c:v>
+                  <c:v>43215.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43216</c:v>
+                  <c:v>43216.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>43217</c:v>
+                  <c:v>43217.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>43218</c:v>
+                  <c:v>43218.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43219</c:v>
+                  <c:v>43219.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>43220</c:v>
+                  <c:v>43220.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>43221</c:v>
+                  <c:v>43221.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>43222</c:v>
+                  <c:v>43222.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>43223</c:v>
+                  <c:v>43223.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>43224</c:v>
+                  <c:v>43224.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>43225</c:v>
+                  <c:v>43225.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>43226</c:v>
+                  <c:v>43226.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>43227</c:v>
+                  <c:v>43227.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>43228</c:v>
+                  <c:v>43228.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>43229</c:v>
+                  <c:v>43229.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>43230</c:v>
+                  <c:v>43230.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>43231</c:v>
+                  <c:v>43231.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>43232</c:v>
+                  <c:v>43232.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>43233</c:v>
+                  <c:v>43233.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>43234</c:v>
+                  <c:v>43234.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>43235</c:v>
+                  <c:v>43235.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>43236</c:v>
+                  <c:v>43236.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>43237</c:v>
+                  <c:v>43237.0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>43238</c:v>
+                  <c:v>43238.0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>43239</c:v>
+                  <c:v>43239.0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>43240</c:v>
+                  <c:v>43240.0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>43241</c:v>
+                  <c:v>43241.0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>43242</c:v>
+                  <c:v>43242.0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>43243</c:v>
+                  <c:v>43243.0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>43244</c:v>
+                  <c:v>43244.0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>43245</c:v>
+                  <c:v>43245.0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>43246</c:v>
+                  <c:v>43246.0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>43247</c:v>
+                  <c:v>43247.0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>43248</c:v>
+                  <c:v>43248.0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>43249</c:v>
+                  <c:v>43249.0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>43250</c:v>
+                  <c:v>43250.0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>43251</c:v>
+                  <c:v>43251.0</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>43252</c:v>
+                  <c:v>43252.0</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>43253</c:v>
+                  <c:v>43253.0</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>43254</c:v>
+                  <c:v>43254.0</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>43255</c:v>
+                  <c:v>43255.0</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>43256</c:v>
+                  <c:v>43256.0</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>43257</c:v>
+                  <c:v>43257.0</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>43258</c:v>
+                  <c:v>43258.0</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>43259</c:v>
+                  <c:v>43259.0</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>43260</c:v>
+                  <c:v>43260.0</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>43261</c:v>
+                  <c:v>43261.0</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>43262</c:v>
+                  <c:v>43262.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -479,10 +461,10 @@
                   <c:v>107.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>107</c:v>
+                  <c:v>107.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>107</c:v>
+                  <c:v>107.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>106.8</c:v>
@@ -491,16 +473,19 @@
                   <c:v>106.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>106</c:v>
+                  <c:v>106.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>105.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>102.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-E737-4FED-9203-956745EEE9B5}"/>
             </c:ext>
@@ -517,11 +502,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="561293064"/>
-        <c:axId val="561292080"/>
+        <c:axId val="-2124333544"/>
+        <c:axId val="-2124331080"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="561293064"/>
+        <c:axId val="-2124333544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -579,18 +564,18 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="561292080"/>
+        <c:crossAx val="-2124331080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="561292080"/>
+        <c:axId val="-2124331080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="110"/>
-          <c:min val="70"/>
+          <c:max val="110.0"/>
+          <c:min val="70.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -639,12 +624,23 @@
               </a:p>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -653,26 +649,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0.0_ " sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -705,10 +681,10 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="561293064"/>
+        <c:crossAx val="-2124333544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="2"/>
+        <c:majorUnit val="2.0"/>
         <c:minorUnit val="0.5"/>
       </c:valAx>
       <c:spPr>
@@ -731,14 +707,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1381,7 +1357,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3814CCBB-546E-482B-A95D-3A2B6760B20B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3814CCBB-546E-482B-A95D-3A2B6760B20B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1445,7 +1421,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -1480,7 +1456,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -1657,21 +1633,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Q42" sqref="Q42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1679,7 +1655,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup dateAxis="1" displayEmptyCellsAs="gap" xr2:uid="{1B9CE090-035A-47EE-8169-5E71BAE389DD}">
+        <x14:sparklineGroup dateAxis="1" displayEmptyCellsAs="gap">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -1730,25 +1706,28 @@
         </x14:sparklineGroup>
       </x14:sparklineGroups>
     </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
   </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C275577E-A609-46D6-BF7C-7CE4687F1E92}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1756,7 +1735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="4">
         <v>43202</v>
       </c>
@@ -1764,7 +1743,7 @@
         <v>107.2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="4">
         <v>43203</v>
       </c>
@@ -1772,7 +1751,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="4">
         <v>43204</v>
       </c>
@@ -1780,7 +1759,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="4">
         <v>43205</v>
       </c>
@@ -1788,7 +1767,7 @@
         <v>106.8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="4">
         <v>43206</v>
       </c>
@@ -1796,7 +1775,7 @@
         <v>106.5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" s="4">
         <v>43207</v>
       </c>
@@ -1804,7 +1783,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" s="4">
         <v>43208</v>
       </c>
@@ -1812,325 +1791,327 @@
         <v>105.5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" s="4">
         <v>43209</v>
       </c>
-      <c r="B9" s="3"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
+        <v>102.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" s="4">
         <v>43210</v>
       </c>
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" s="4">
         <v>43211</v>
       </c>
       <c r="B11" s="3"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" s="4">
         <v>43212</v>
       </c>
       <c r="B12" s="3"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" s="4">
         <v>43213</v>
       </c>
       <c r="B13" s="3"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" s="4">
         <v>43214</v>
       </c>
       <c r="B14" s="3"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" s="4">
         <v>43215</v>
       </c>
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16" s="4">
         <v>43216</v>
       </c>
       <c r="B16" s="3"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="4">
         <v>43217</v>
       </c>
       <c r="B17" s="3"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" s="4">
         <v>43218</v>
       </c>
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" s="4">
         <v>43219</v>
       </c>
       <c r="B19" s="3"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" s="4">
         <v>43220</v>
       </c>
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" s="4">
         <v>43221</v>
       </c>
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22" s="4">
         <v>43222</v>
       </c>
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23" s="4">
         <v>43223</v>
       </c>
       <c r="B23" s="3"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24" s="4">
         <v>43224</v>
       </c>
       <c r="B24" s="3"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="A25" s="4">
         <v>43225</v>
       </c>
       <c r="B25" s="3"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2">
       <c r="A26" s="4">
         <v>43226</v>
       </c>
       <c r="B26" s="3"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2">
       <c r="A27" s="4">
         <v>43227</v>
       </c>
       <c r="B27" s="3"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2">
       <c r="A28" s="4">
         <v>43228</v>
       </c>
       <c r="B28" s="3"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2">
       <c r="A29" s="4">
         <v>43229</v>
       </c>
       <c r="B29" s="3"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2">
       <c r="A30" s="4">
         <v>43230</v>
       </c>
       <c r="B30" s="3"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2">
       <c r="A31" s="4">
         <v>43231</v>
       </c>
       <c r="B31" s="3"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2">
       <c r="A32" s="4">
         <v>43232</v>
       </c>
       <c r="B32" s="3"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2">
       <c r="A33" s="4">
         <v>43233</v>
       </c>
       <c r="B33" s="3"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2">
       <c r="A34" s="4">
         <v>43234</v>
       </c>
       <c r="B34" s="3"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2">
       <c r="A35" s="4">
         <v>43235</v>
       </c>
       <c r="B35" s="3"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2">
       <c r="A36" s="4">
         <v>43236</v>
       </c>
       <c r="B36" s="3"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2">
       <c r="A37" s="4">
         <v>43237</v>
       </c>
       <c r="B37" s="3"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2">
       <c r="A38" s="4">
         <v>43238</v>
       </c>
       <c r="B38" s="3"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2">
       <c r="A39" s="4">
         <v>43239</v>
       </c>
       <c r="B39" s="3"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2">
       <c r="A40" s="4">
         <v>43240</v>
       </c>
       <c r="B40" s="3"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2">
       <c r="A41" s="4">
         <v>43241</v>
       </c>
       <c r="B41" s="3"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2">
       <c r="A42" s="4">
         <v>43242</v>
       </c>
       <c r="B42" s="3"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2">
       <c r="A43" s="4">
         <v>43243</v>
       </c>
       <c r="B43" s="3"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2">
       <c r="A44" s="4">
         <v>43244</v>
       </c>
       <c r="B44" s="3"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2">
       <c r="A45" s="4">
         <v>43245</v>
       </c>
       <c r="B45" s="3"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2">
       <c r="A46" s="4">
         <v>43246</v>
       </c>
       <c r="B46" s="3"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2">
       <c r="A47" s="4">
         <v>43247</v>
       </c>
       <c r="B47" s="3"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2">
       <c r="A48" s="4">
         <v>43248</v>
       </c>
       <c r="B48" s="3"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2">
       <c r="A49" s="4">
         <v>43249</v>
       </c>
       <c r="B49" s="3"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2">
       <c r="A50" s="4">
         <v>43250</v>
       </c>
       <c r="B50" s="3"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2">
       <c r="A51" s="4">
         <v>43251</v>
       </c>
       <c r="B51" s="3"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2">
       <c r="A52" s="4">
         <v>43252</v>
       </c>
       <c r="B52" s="3"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2">
       <c r="A53" s="4">
         <v>43253</v>
       </c>
       <c r="B53" s="3"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2">
       <c r="A54" s="4">
         <v>43254</v>
       </c>
       <c r="B54" s="3"/>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2">
       <c r="A55" s="4">
         <v>43255</v>
       </c>
       <c r="B55" s="3"/>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2">
       <c r="A56" s="4">
         <v>43256</v>
       </c>
       <c r="B56" s="3"/>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2">
       <c r="A57" s="4">
         <v>43257</v>
       </c>
       <c r="B57" s="3"/>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2">
       <c r="A58" s="4">
         <v>43258</v>
       </c>
       <c r="B58" s="3"/>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2">
       <c r="A59" s="4">
         <v>43259</v>
       </c>
       <c r="B59" s="3"/>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2">
       <c r="A60" s="4">
         <v>43260</v>
       </c>
       <c r="B60" s="3"/>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2">
       <c r="A61" s="4">
         <v>43261</v>
       </c>
       <c r="B61" s="3"/>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2">
       <c r="A62" s="4">
         <v>43262</v>
       </c>
@@ -2139,6 +2120,11 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/01.日常记录/03.体重曲线.xlsx
+++ b/01.日常记录/03.体重曲线.xlsx
@@ -481,6 +481,9 @@
                 <c:pt idx="7">
                   <c:v>102.4</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>103.4</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -502,11 +505,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2124333544"/>
-        <c:axId val="-2124331080"/>
+        <c:axId val="-2128834328"/>
+        <c:axId val="-2128824168"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-2124333544"/>
+        <c:axId val="-2128834328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -564,14 +567,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2124331080"/>
+        <c:crossAx val="-2128824168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-2124331080"/>
+        <c:axId val="-2128824168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="110.0"/>
@@ -640,7 +643,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -681,7 +683,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2124333544"/>
+        <c:crossAx val="-2128834328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2.0"/>
@@ -1357,7 +1359,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3814CCBB-546E-482B-A95D-3A2B6760B20B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3814CCBB-546E-482B-A95D-3A2B6760B20B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1633,7 +1635,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1718,7 +1720,7 @@
   <dimension ref="A1:B62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1803,7 +1805,9 @@
       <c r="A10" s="4">
         <v>43210</v>
       </c>
-      <c r="B10" s="3"/>
+      <c r="B10" s="3">
+        <v>103.4</v>
+      </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="4">

--- a/01.日常记录/03.体重曲线.xlsx
+++ b/01.日常记录/03.体重曲线.xlsx
@@ -23,13 +23,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>体重(KG)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>换了称</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -484,6 +488,9 @@
                 <c:pt idx="8">
                   <c:v>103.4</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>103.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -505,11 +512,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2128834328"/>
-        <c:axId val="-2128824168"/>
+        <c:axId val="-2144855768"/>
+        <c:axId val="-2133039400"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-2128834328"/>
+        <c:axId val="-2144855768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -567,14 +574,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2128824168"/>
+        <c:crossAx val="-2133039400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-2128824168"/>
+        <c:axId val="-2133039400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="110.0"/>
@@ -683,7 +690,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2128834328"/>
+        <c:crossAx val="-2144855768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2.0"/>
@@ -1359,7 +1366,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3814CCBB-546E-482B-A95D-3A2B6760B20B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3814CCBB-546E-482B-A95D-3A2B6760B20B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1635,7 +1642,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1717,10 +1724,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B62"/>
+  <dimension ref="A1:C62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1729,7 +1736,7 @@
     <col min="2" max="2" width="16" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1737,7 +1744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" s="4">
         <v>43202</v>
       </c>
@@ -1745,7 +1752,7 @@
         <v>107.2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3" s="4">
         <v>43203</v>
       </c>
@@ -1753,7 +1760,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="A4" s="4">
         <v>43204</v>
       </c>
@@ -1761,7 +1768,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3">
       <c r="A5" s="4">
         <v>43205</v>
       </c>
@@ -1769,7 +1776,7 @@
         <v>106.8</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3">
       <c r="A6" s="4">
         <v>43206</v>
       </c>
@@ -1777,7 +1784,7 @@
         <v>106.5</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:3">
       <c r="A7" s="4">
         <v>43207</v>
       </c>
@@ -1785,15 +1792,18 @@
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:3">
       <c r="A8" s="4">
         <v>43208</v>
       </c>
       <c r="B8" s="3">
         <v>105.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="4">
         <v>43209</v>
       </c>
@@ -1801,7 +1811,7 @@
         <v>102.4</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:3">
       <c r="A10" s="4">
         <v>43210</v>
       </c>
@@ -1809,37 +1819,39 @@
         <v>103.4</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:3">
       <c r="A11" s="4">
         <v>43211</v>
       </c>
-      <c r="B11" s="3"/>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="B11" s="3">
+        <v>103.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" s="4">
         <v>43212</v>
       </c>
       <c r="B12" s="3"/>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:3">
       <c r="A13" s="4">
         <v>43213</v>
       </c>
       <c r="B13" s="3"/>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:3">
       <c r="A14" s="4">
         <v>43214</v>
       </c>
       <c r="B14" s="3"/>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:3">
       <c r="A15" s="4">
         <v>43215</v>
       </c>
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:3">
       <c r="A16" s="4">
         <v>43216</v>
       </c>

--- a/01.日常记录/03.体重曲线.xlsx
+++ b/01.日常记录/03.体重曲线.xlsx
@@ -45,7 +45,7 @@
     <numFmt numFmtId="176" formatCode="0.0_ "/>
     <numFmt numFmtId="177" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,6 +75,22 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -115,11 +131,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -136,7 +154,9 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="好" xfId="1" builtinId="26"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -491,6 +511,9 @@
                 <c:pt idx="9">
                   <c:v>103.5</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>102.7</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -512,11 +535,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2144855768"/>
-        <c:axId val="-2133039400"/>
+        <c:axId val="-2131111416"/>
+        <c:axId val="-2144633912"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-2144855768"/>
+        <c:axId val="-2131111416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -574,14 +597,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2133039400"/>
+        <c:crossAx val="-2144633912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-2133039400"/>
+        <c:axId val="-2144633912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="110.0"/>
@@ -690,7 +713,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2144855768"/>
+        <c:crossAx val="-2131111416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2.0"/>
@@ -1366,7 +1389,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3814CCBB-546E-482B-A95D-3A2B6760B20B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3814CCBB-546E-482B-A95D-3A2B6760B20B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1642,7 +1665,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1727,7 +1750,7 @@
   <dimension ref="A1:C62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1799,9 +1822,6 @@
       <c r="B8" s="3">
         <v>105.5</v>
       </c>
-      <c r="C8" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="4">
@@ -1810,6 +1830,9 @@
       <c r="B9" s="3">
         <v>102.4</v>
       </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="4">
@@ -1831,7 +1854,9 @@
       <c r="A12" s="4">
         <v>43212</v>
       </c>
-      <c r="B12" s="3"/>
+      <c r="B12" s="3">
+        <v>102.7</v>
+      </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="4">

--- a/01.日常记录/03.体重曲线.xlsx
+++ b/01.日常记录/03.体重曲线.xlsx
@@ -514,6 +514,9 @@
                 <c:pt idx="10">
                   <c:v>102.7</c:v>
                 </c:pt>
+                <c:pt idx="11">
+                  <c:v>103.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -535,11 +538,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2131111416"/>
-        <c:axId val="-2144633912"/>
+        <c:axId val="-2083957880"/>
+        <c:axId val="-2093891336"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-2131111416"/>
+        <c:axId val="-2083957880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -597,14 +600,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2144633912"/>
+        <c:crossAx val="-2093891336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-2144633912"/>
+        <c:axId val="-2093891336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="110.0"/>
@@ -713,7 +716,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2131111416"/>
+        <c:crossAx val="-2083957880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2.0"/>
@@ -1389,7 +1392,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3814CCBB-546E-482B-A95D-3A2B6760B20B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3814CCBB-546E-482B-A95D-3A2B6760B20B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1665,7 +1668,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1750,7 +1753,7 @@
   <dimension ref="A1:C62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1862,7 +1865,9 @@
       <c r="A13" s="4">
         <v>43213</v>
       </c>
-      <c r="B13" s="3"/>
+      <c r="B13" s="3">
+        <v>103</v>
+      </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="4">

--- a/01.日常记录/03.体重曲线.xlsx
+++ b/01.日常记录/03.体重曲线.xlsx
@@ -517,6 +517,9 @@
                 <c:pt idx="11">
                   <c:v>103.0</c:v>
                 </c:pt>
+                <c:pt idx="12">
+                  <c:v>103.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -538,11 +541,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2083957880"/>
-        <c:axId val="-2093891336"/>
+        <c:axId val="-2093747368"/>
+        <c:axId val="-2093733432"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-2083957880"/>
+        <c:axId val="-2093747368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -600,14 +603,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2093891336"/>
+        <c:crossAx val="-2093733432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-2093891336"/>
+        <c:axId val="-2093733432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="110.0"/>
@@ -716,7 +719,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2083957880"/>
+        <c:crossAx val="-2093747368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2.0"/>
@@ -1392,7 +1395,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3814CCBB-546E-482B-A95D-3A2B6760B20B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3814CCBB-546E-482B-A95D-3A2B6760B20B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1668,7 +1671,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1753,7 +1756,7 @@
   <dimension ref="A1:C62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1873,7 +1876,9 @@
       <c r="A14" s="4">
         <v>43214</v>
       </c>
-      <c r="B14" s="3"/>
+      <c r="B14" s="3">
+        <v>103</v>
+      </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="4">

--- a/01.日常记录/03.体重曲线.xlsx
+++ b/01.日常记录/03.体重曲线.xlsx
@@ -520,6 +520,9 @@
                 <c:pt idx="12">
                   <c:v>103.0</c:v>
                 </c:pt>
+                <c:pt idx="13">
+                  <c:v>101.8</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -541,11 +544,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2093747368"/>
-        <c:axId val="-2093733432"/>
+        <c:axId val="-2067309784"/>
+        <c:axId val="-2068473800"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-2093747368"/>
+        <c:axId val="-2067309784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -603,14 +606,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2093733432"/>
+        <c:crossAx val="-2068473800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-2093733432"/>
+        <c:axId val="-2068473800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="110.0"/>
@@ -719,7 +722,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2093747368"/>
+        <c:crossAx val="-2067309784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2.0"/>
@@ -1395,7 +1398,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3814CCBB-546E-482B-A95D-3A2B6760B20B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3814CCBB-546E-482B-A95D-3A2B6760B20B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1671,7 +1674,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1756,7 +1759,7 @@
   <dimension ref="A1:C62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1884,7 +1887,9 @@
       <c r="A15" s="4">
         <v>43215</v>
       </c>
-      <c r="B15" s="3"/>
+      <c r="B15" s="3">
+        <v>101.8</v>
+      </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="4">

--- a/01.日常记录/03.体重曲线.xlsx
+++ b/01.日常记录/03.体重曲线.xlsx
@@ -523,6 +523,12 @@
                 <c:pt idx="13">
                   <c:v>101.8</c:v>
                 </c:pt>
+                <c:pt idx="14">
+                  <c:v>101.3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>102.1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -544,11 +550,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2067309784"/>
-        <c:axId val="-2068473800"/>
+        <c:axId val="-2068444712"/>
+        <c:axId val="-2068604760"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-2067309784"/>
+        <c:axId val="-2068444712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -606,14 +612,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2068473800"/>
+        <c:crossAx val="-2068604760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-2068473800"/>
+        <c:axId val="-2068604760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="110.0"/>
@@ -722,7 +728,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2067309784"/>
+        <c:crossAx val="-2068444712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2.0"/>
@@ -1398,7 +1404,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3814CCBB-546E-482B-A95D-3A2B6760B20B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3814CCBB-546E-482B-A95D-3A2B6760B20B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1674,7 +1680,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1759,7 +1765,7 @@
   <dimension ref="A1:C62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1895,13 +1901,17 @@
       <c r="A16" s="4">
         <v>43216</v>
       </c>
-      <c r="B16" s="3"/>
+      <c r="B16" s="3">
+        <v>101.3</v>
+      </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="4">
         <v>43217</v>
       </c>
-      <c r="B17" s="3"/>
+      <c r="B17" s="3">
+        <v>102.1</v>
+      </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="4">

--- a/01.日常记录/03.体重曲线.xlsx
+++ b/01.日常记录/03.体重曲线.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -34,6 +34,14 @@
   </si>
   <si>
     <t>换了称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>换了称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>会有1公斤左右偏差</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -131,11 +139,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -154,9 +164,11 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="6">
     <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="好" xfId="1" builtinId="26"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -529,6 +541,30 @@
                 <c:pt idx="15">
                   <c:v>102.1</c:v>
                 </c:pt>
+                <c:pt idx="16">
+                  <c:v>101.7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>102.3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>101.3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>99.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>99.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -550,11 +586,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2068444712"/>
-        <c:axId val="-2068604760"/>
+        <c:axId val="-2123543672"/>
+        <c:axId val="2137900280"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-2068444712"/>
+        <c:axId val="-2123543672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -612,14 +648,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2068604760"/>
+        <c:crossAx val="2137900280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-2068604760"/>
+        <c:axId val="2137900280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="110.0"/>
@@ -728,7 +764,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2068444712"/>
+        <c:crossAx val="-2123543672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2.0"/>
@@ -1762,10 +1798,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C62"/>
+  <dimension ref="A1:D62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1774,7 +1810,7 @@
     <col min="2" max="2" width="16" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1782,7 +1818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" s="4">
         <v>43202</v>
       </c>
@@ -1790,7 +1826,7 @@
         <v>107.2</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" s="4">
         <v>43203</v>
       </c>
@@ -1798,7 +1834,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4" s="4">
         <v>43204</v>
       </c>
@@ -1806,7 +1842,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="A5" s="4">
         <v>43205</v>
       </c>
@@ -1814,7 +1850,7 @@
         <v>106.8</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4">
       <c r="A6" s="4">
         <v>43206</v>
       </c>
@@ -1822,7 +1858,7 @@
         <v>106.5</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4">
       <c r="A7" s="4">
         <v>43207</v>
       </c>
@@ -1830,7 +1866,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:4">
       <c r="A8" s="4">
         <v>43208</v>
       </c>
@@ -1838,7 +1874,7 @@
         <v>105.5</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:4">
       <c r="A9" s="4">
         <v>43209</v>
       </c>
@@ -1848,8 +1884,11 @@
       <c r="C9" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="4">
         <v>43210</v>
       </c>
@@ -1857,7 +1896,7 @@
         <v>103.4</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:4">
       <c r="A11" s="4">
         <v>43211</v>
       </c>
@@ -1865,7 +1904,7 @@
         <v>103.5</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:4">
       <c r="A12" s="4">
         <v>43212</v>
       </c>
@@ -1873,7 +1912,7 @@
         <v>102.7</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:4">
       <c r="A13" s="4">
         <v>43213</v>
       </c>
@@ -1881,7 +1920,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:4">
       <c r="A14" s="4">
         <v>43214</v>
       </c>
@@ -1889,7 +1928,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:4">
       <c r="A15" s="4">
         <v>43215</v>
       </c>
@@ -1897,7 +1936,7 @@
         <v>101.8</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:4">
       <c r="A16" s="4">
         <v>43216</v>
       </c>
@@ -1905,7 +1944,7 @@
         <v>101.3</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:3">
       <c r="A17" s="4">
         <v>43217</v>
       </c>
@@ -1913,91 +1952,113 @@
         <v>102.1</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:3">
       <c r="A18" s="4">
         <v>43218</v>
       </c>
-      <c r="B18" s="3"/>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="B18" s="3">
+        <v>101.7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="4">
         <v>43219</v>
       </c>
-      <c r="B19" s="3"/>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="B19" s="3">
+        <v>102.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="4">
         <v>43220</v>
       </c>
-      <c r="B20" s="3"/>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="B20" s="3">
+        <v>100</v>
+      </c>
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="4">
         <v>43221</v>
       </c>
-      <c r="B21" s="3"/>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="B21" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="4">
         <v>43222</v>
       </c>
-      <c r="B22" s="3"/>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="B22" s="3">
+        <v>101.3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" s="4">
         <v>43223</v>
       </c>
-      <c r="B23" s="3"/>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="B23" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" s="4">
         <v>43224</v>
       </c>
-      <c r="B24" s="3"/>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="B24" s="3">
+        <v>99.5</v>
+      </c>
+      <c r="C24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" s="4">
         <v>43225</v>
       </c>
-      <c r="B25" s="3"/>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="B25" s="3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" s="4">
         <v>43226</v>
       </c>
       <c r="B26" s="3"/>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:3">
       <c r="A27" s="4">
         <v>43227</v>
       </c>
       <c r="B27" s="3"/>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:3">
       <c r="A28" s="4">
         <v>43228</v>
       </c>
       <c r="B28" s="3"/>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:3">
       <c r="A29" s="4">
         <v>43229</v>
       </c>
       <c r="B29" s="3"/>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:3">
       <c r="A30" s="4">
         <v>43230</v>
       </c>
       <c r="B30" s="3"/>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:3">
       <c r="A31" s="4">
         <v>43231</v>
       </c>
       <c r="B31" s="3"/>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:3">
       <c r="A32" s="4">
         <v>43232</v>
       </c>
